--- a/data/power-measurements.xlsx
+++ b/data/power-measurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db231f74139cf0f/Documenten/GitHub/DLI-Supression-Experiment/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="11_F25DC773A252ABDACC10486D215C5B105ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{216FAC53-0811-4BFA-A4A1-E4A9050C3E13}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="11_F25DC773A252ABDACC10486D215C5B105ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{770589EB-17D6-4718-8025-F1CB9169BFCC}"/>
   <bookViews>
-    <workbookView xWindow="-23136" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27012" yWindow="0" windowWidth="14364" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>Number of antennas</t>
   </si>
@@ -84,13 +84,37 @@
   </si>
   <si>
     <t>NOT YET REMOVED CABLE LOSS</t>
+  </si>
+  <si>
+    <t>Worst to best</t>
+  </si>
+  <si>
+    <t>Best to worst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C08 F05 A05 B06 F06 B09 E06 G10 A09 G06 </t>
+  </si>
+  <si>
+    <t>G08 C07  A08 A07 B07 G05 G09 A06 C06 G07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>B10 E07 C05 D06 C10 F08 E05 C09 A10 F10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D09 D05 </t>
+  </si>
+  <si>
+    <t>B05 B08 D10 D08 E09 E08 E10 F07 D07 F09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,8 +130,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +158,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -139,20 +177,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,219 +472,417 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B24" sqref="B24:G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="3" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" customWidth="1"/>
+    <col min="3" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="6" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B4" s="3">
         <v>-59.22</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C4" s="3">
         <v>-22.61</v>
       </c>
-      <c r="D3" s="3">
-        <f>C3-B3</f>
+      <c r="D4" s="3">
+        <f>C4-B4</f>
         <v>36.61</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E4" s="5">
         <v>-28.17</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F4" s="5">
         <v>-20.2</v>
       </c>
-      <c r="G3" s="5">
-        <f t="shared" ref="G3:G6" si="0">F3-E3</f>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G7" si="0">F4-E4</f>
         <v>7.9700000000000024</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>20</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B5" s="3">
         <v>-56.01</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C5" s="3">
         <v>-16.920000000000002</v>
       </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D7" si="1">C4-B4</f>
+      <c r="D5" s="3">
+        <f t="shared" ref="D5:D8" si="1">C5-B5</f>
         <v>39.089999999999996</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E5" s="5">
         <v>-24.18</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F5" s="5">
         <v>-15.69</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G5" s="5">
         <f t="shared" si="0"/>
         <v>8.49</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>30</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B6" s="3">
         <v>-42.62</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C6" s="3">
         <v>-14.91</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D6" s="3">
         <f t="shared" si="1"/>
         <v>27.709999999999997</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E6" s="5">
         <v>-22.13</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F6" s="5">
         <v>-14.17</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G6" s="5">
         <f t="shared" si="0"/>
         <v>7.9599999999999991</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>40</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B7" s="3">
         <v>-42.05</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="3">
         <v>-13.91</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D7" s="3">
         <f t="shared" si="1"/>
         <v>28.139999999999997</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E7" s="5">
         <v>-19.579999999999998</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F7" s="5">
         <v>-13.12</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G7" s="5">
         <f t="shared" si="0"/>
         <v>6.4599999999999991</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>42</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B8" s="3">
         <v>-39.22</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="3">
         <v>-13.78</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D8" s="3">
         <f t="shared" si="1"/>
         <v>25.439999999999998</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E8" s="5">
         <v>-20.58</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F8" s="5">
         <v>-13.14</v>
       </c>
-      <c r="G7" s="5">
-        <f>F7-E7</f>
+      <c r="G8" s="5">
+        <f>F8-E8</f>
         <v>7.4399999999999977</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C12" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>10</v>
+      </c>
+      <c r="B21" s="3">
+        <v>-46.97</v>
+      </c>
+      <c r="C21" s="3">
+        <v>-35.42</v>
+      </c>
+      <c r="D21" s="3">
+        <f>C21-B21</f>
+        <v>11.549999999999997</v>
+      </c>
+      <c r="E21" s="5">
+        <v>-28.2</v>
+      </c>
+      <c r="F21" s="5">
+        <v>-32.99</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" ref="G21:G24" si="2">F21-E21</f>
+        <v>-4.7900000000000027</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>-44.9</v>
+      </c>
+      <c r="C22" s="3">
+        <v>-27.12</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D25" si="3">C22-B22</f>
+        <v>17.779999999999998</v>
+      </c>
+      <c r="E22" s="5">
+        <v>-27.58</v>
+      </c>
+      <c r="F22" s="5">
+        <v>-26.13</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="2"/>
+        <v>1.4499999999999993</v>
+      </c>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>30</v>
+      </c>
+      <c r="B23" s="3">
+        <v>-33.19</v>
+      </c>
+      <c r="C23" s="3">
+        <v>-20.71</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="3"/>
+        <v>12.479999999999997</v>
+      </c>
+      <c r="E23" s="5">
+        <v>-21.21</v>
+      </c>
+      <c r="F23" s="5">
+        <v>-19.260000000000002</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="2"/>
+        <v>1.9499999999999993</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>40</v>
+      </c>
+      <c r="B24" s="3">
+        <v>-38.6</v>
+      </c>
+      <c r="C24" s="3">
+        <v>-15.02</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="3"/>
+        <v>23.580000000000002</v>
+      </c>
+      <c r="E24" s="5">
+        <v>-18.579999999999998</v>
+      </c>
+      <c r="F24" s="5">
+        <v>-13.55</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="2"/>
+        <v>5.0299999999999976</v>
+      </c>
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>42</v>
+      </c>
+      <c r="B25" s="3">
+        <v>-39.03</v>
+      </c>
+      <c r="C25" s="3">
+        <v>-13.93</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="3"/>
+        <v>25.1</v>
+      </c>
+      <c r="E25" s="5">
+        <v>-18.52</v>
+      </c>
+      <c r="F25" s="5">
+        <v>-13.13</v>
+      </c>
+      <c r="G25" s="5">
+        <f>F25-E25</f>
+        <v>5.3899999999999988</v>
+      </c>
+      <c r="H25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
+  <mergeCells count="4">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
